--- a/Explorer_StudentList.xlsx
+++ b/Explorer_StudentList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
   <si>
     <t>Sr No.</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>Gaikwad Sagar Pratap</t>
+  </si>
+  <si>
+    <t>rahul raut</t>
   </si>
 </sst>
 </file>
@@ -1151,6 +1154,9 @@
       <c r="A18">
         <v>14</v>
       </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">

--- a/Explorer_StudentList.xlsx
+++ b/Explorer_StudentList.xlsx
@@ -987,7 +987,7 @@
   <dimension ref="A4:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
